--- a/Practica1-K_MEANS/estaturas.xlsx
+++ b/Practica1-K_MEANS/estaturas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebeca\Documents\GALILEO MAESTRIA EN CIENCIA DE DATOS\TRIMESTRE3\Statistical Learning II\Practicas\Practica1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebeca\Documents\GALILEO MAESTRIA EN CIENCIA DE DATOS\TRIMESTRE3\Statistical Learning II\Practicas\Practica1-K_MEANS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE327A7-54B0-4AB3-8C97-5EA978656EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3556757B-78C3-4F28-94EE-1C8C2D43881A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normales" sheetId="1" r:id="rId1"/>
@@ -27,27 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>Estatura(metros)</t>
   </si>
   <si>
     <t>Edad(años)</t>
   </si>
-  <si>
-    <t>Estatura</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d\.m"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -89,14 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -320,8 +309,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -339,7 +328,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1.77</v>
       </c>
       <c r="B2" s="2">
@@ -347,7 +336,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>1.74</v>
       </c>
       <c r="B3" s="2">
@@ -355,7 +344,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>1.72</v>
       </c>
       <c r="B4" s="2">
@@ -363,7 +352,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>1.78</v>
       </c>
       <c r="B5" s="2">
@@ -371,7 +360,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.65</v>
       </c>
       <c r="B6" s="2">
@@ -379,7 +368,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>1.66</v>
       </c>
       <c r="B7" s="2">
@@ -387,7 +376,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>1.64</v>
       </c>
       <c r="B8" s="2">
@@ -395,7 +384,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>1.85</v>
       </c>
       <c r="B9" s="2">
@@ -403,7 +392,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>1.85</v>
       </c>
       <c r="B10" s="2">
@@ -411,7 +400,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>1.75</v>
       </c>
       <c r="B11" s="2">
@@ -419,7 +408,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>1.73</v>
       </c>
       <c r="B12" s="2">
@@ -427,7 +416,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>1.79</v>
       </c>
       <c r="B13" s="2">
@@ -435,7 +424,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>1.82</v>
       </c>
       <c r="B14" s="2">
@@ -443,7 +432,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>1.65</v>
       </c>
       <c r="B15" s="2">
@@ -451,7 +440,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>1.79</v>
       </c>
       <c r="B16" s="2">
@@ -459,7 +448,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>1.72</v>
       </c>
       <c r="B17" s="2">
@@ -467,7 +456,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>1.7</v>
       </c>
       <c r="B18" s="2">
@@ -475,7 +464,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>1.57</v>
       </c>
       <c r="B19" s="2">
@@ -483,7 +472,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>1.66</v>
       </c>
       <c r="B20" s="2">
@@ -491,7 +480,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>1.75</v>
       </c>
       <c r="B21" s="2">
@@ -499,7 +488,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>1.77</v>
       </c>
       <c r="B22" s="2">
@@ -507,7 +496,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>1.8</v>
       </c>
       <c r="B23" s="2">
@@ -515,7 +504,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>1.85</v>
       </c>
       <c r="B24" s="2">
@@ -523,7 +512,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>1.82</v>
       </c>
       <c r="B25" s="2">
@@ -531,7 +520,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>1.75</v>
       </c>
       <c r="B26" s="2">
@@ -539,7 +528,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>1.73</v>
       </c>
       <c r="B27" s="2">
@@ -547,7 +536,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>1.55</v>
       </c>
       <c r="B28" s="2">
@@ -555,7 +544,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>1.76</v>
       </c>
       <c r="B29" s="1">
@@ -563,7 +552,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>1.68</v>
       </c>
       <c r="B30" s="3">
@@ -1567,7 +1556,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>1.82</v>
       </c>
       <c r="B2" s="4">
@@ -1575,7 +1564,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1.8</v>
       </c>
       <c r="B3" s="4">
@@ -1583,7 +1572,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>1.6</v>
       </c>
       <c r="B4" s="4">
@@ -1591,7 +1580,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>1.6</v>
       </c>
       <c r="B5" s="4">
@@ -1599,7 +1588,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>1.82</v>
       </c>
       <c r="B6" s="4">
@@ -1607,7 +1596,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>1.76</v>
       </c>
       <c r="B7" s="4">
@@ -1615,7 +1604,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>1.79</v>
       </c>
       <c r="B8" s="4">
@@ -1623,7 +1612,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>1.61</v>
       </c>
       <c r="B9" s="4">
@@ -1642,8 +1631,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1653,42 +1642,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0.25</v>
       </c>
-      <c r="B2" s="5">
-        <v>43557</v>
+      <c r="B2" s="6">
+        <v>2.4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>175.1</v>
       </c>
-      <c r="B3" s="5">
-        <v>43587</v>
+      <c r="B3" s="6">
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>0.15</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>150</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>14</v>
       </c>
     </row>
@@ -2689,5 +2678,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>